--- a/Curation/Media/KBASE_MEDIAS/MMB_aa.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/MMB_aa.xlsx
@@ -852,7 +852,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -872,7 +872,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -932,7 +932,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -992,7 +992,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -1032,7 +1032,7 @@
         <v>-100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0.001</v>
@@ -1072,7 +1072,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -1152,7 +1152,7 @@
         <v>-100</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>0.001</v>
@@ -1172,7 +1172,7 @@
         <v>-100</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>0.001</v>
@@ -1272,7 +1272,7 @@
         <v>-100</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>0.001</v>
@@ -1292,7 +1292,7 @@
         <v>-100</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <v>0.001</v>
@@ -1332,7 +1332,7 @@
         <v>-100</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>0.001</v>
@@ -1352,7 +1352,7 @@
         <v>-100</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>0.001</v>
@@ -1392,7 +1392,7 @@
         <v>-100</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>0.001</v>
@@ -1472,7 +1472,7 @@
         <v>-100</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F33">
         <v>0.001</v>
@@ -1492,7 +1492,7 @@
         <v>-100</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F34">
         <v>0.001</v>
@@ -1592,7 +1592,7 @@
         <v>-100</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F39">
         <v>0.001</v>
@@ -1612,7 +1612,7 @@
         <v>-100</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F40">
         <v>0.001</v>
@@ -1632,7 +1632,7 @@
         <v>-100</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F41">
         <v>0.001</v>
@@ -1652,7 +1652,7 @@
         <v>-100</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F42">
         <v>0.001</v>
@@ -1732,7 +1732,7 @@
         <v>-100</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F46">
         <v>0.001</v>
